--- a/dati_tot_areageog.xlsx
+++ b/dati_tot_areageog.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/48a135310f9023bd/Documenti/tesi file/file da pandas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{301B50D2-E3EB-45D3-A584-2AF8E288E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90F2EAFB-AEB7-4E96-9E04-6D440149260D}"/>
+  <xr:revisionPtr revIDLastSave="18" documentId="13_ncr:1_{301B50D2-E3EB-45D3-A584-2AF8E288E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1088BFA6-FD3F-4BFF-A160-B8630766B45E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="578" uniqueCount="43">
   <si>
     <t>ANNO DI RIFERIMENTO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NUMERO DI COMUNI </t>
   </si>
   <si>
     <t>NUMERO DI ABITANTI</t>
@@ -65,12 +62,6 @@
   </si>
   <si>
     <t>SPESA TOTALE PER RICERCA E SVILUPPO</t>
-  </si>
-  <si>
-    <t>PROPENSIONE ALLA BRVETTAZIONE</t>
-  </si>
-  <si>
-    <t>Area geografica</t>
   </si>
   <si>
     <t>Piemonte</t>
@@ -153,6 +144,12 @@
   <si>
     <t>AREE GEOGRAFICHE</t>
   </si>
+  <si>
+    <t>NUMERO DI COMUNI</t>
+  </si>
+  <si>
+    <t>PROPENSIONE ALLA BREVETTAZIONE</t>
+  </si>
 </sst>
 </file>
 
@@ -228,6 +225,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -515,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S281"/>
+  <dimension ref="A1:R281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="91" zoomScaleNormal="51" workbookViewId="0">
-      <selection activeCell="T269" sqref="T269"/>
+    <sheetView tabSelected="1" zoomScale="91" zoomScaleNormal="51" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,71 +527,68 @@
     <col min="1" max="2" width="25.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="B2" t="s">
         <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" t="s">
-        <v>18</v>
       </c>
       <c r="C2">
         <v>2010</v>
@@ -631,16 +629,13 @@
       <c r="R2">
         <v>111.6</v>
       </c>
-      <c r="S2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C3">
         <v>2011</v>
@@ -681,16 +676,13 @@
       <c r="R3">
         <v>114.1</v>
       </c>
-      <c r="S3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C4">
         <v>2012</v>
@@ -737,16 +729,13 @@
       <c r="R4">
         <v>118.7</v>
       </c>
-      <c r="S4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C5">
         <v>2013</v>
@@ -793,16 +782,13 @@
       <c r="R5">
         <v>101.3</v>
       </c>
-      <c r="S5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C6">
         <v>2014</v>
@@ -849,16 +835,13 @@
       <c r="R6">
         <v>111</v>
       </c>
-      <c r="S6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C7">
         <v>2015</v>
@@ -905,16 +888,13 @@
       <c r="R7">
         <v>114</v>
       </c>
-      <c r="S7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>2016</v>
@@ -964,16 +944,13 @@
       <c r="R8">
         <v>114.9</v>
       </c>
-      <c r="S8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C9">
         <v>2017</v>
@@ -1020,16 +997,13 @@
       <c r="R9">
         <v>119.3</v>
       </c>
-      <c r="S9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C10">
         <v>2018</v>
@@ -1076,16 +1050,13 @@
       <c r="R10">
         <v>109.3</v>
       </c>
-      <c r="S10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C11">
         <v>2019</v>
@@ -1135,16 +1106,13 @@
       <c r="R11">
         <v>112.6</v>
       </c>
-      <c r="S11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C12">
         <v>2020</v>
@@ -1188,16 +1156,13 @@
       <c r="Q12">
         <v>2957758000</v>
       </c>
-      <c r="S12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <v>2021</v>
@@ -1241,16 +1206,13 @@
       <c r="Q13">
         <v>2832684000</v>
       </c>
-      <c r="S13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1285,16 +1247,13 @@
       <c r="N14">
         <v>90.1</v>
       </c>
-      <c r="S14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1317,16 +1276,13 @@
       <c r="L15">
         <v>4</v>
       </c>
-      <c r="S15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>2010</v>
@@ -1367,16 +1323,13 @@
       <c r="R16">
         <v>70.3</v>
       </c>
-      <c r="S16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C17">
         <v>2011</v>
@@ -1417,16 +1370,13 @@
       <c r="R17">
         <v>36.299999999999997</v>
       </c>
-      <c r="S17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C18">
         <v>2012</v>
@@ -1473,16 +1423,13 @@
       <c r="R18">
         <v>26.1</v>
       </c>
-      <c r="S18" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C19">
         <v>2013</v>
@@ -1529,16 +1476,13 @@
       <c r="R19">
         <v>74.3</v>
       </c>
-      <c r="S19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C20">
         <v>2014</v>
@@ -1585,16 +1529,13 @@
       <c r="R20">
         <v>50.5</v>
       </c>
-      <c r="S20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <v>2015</v>
@@ -1641,16 +1582,13 @@
       <c r="R21">
         <v>53</v>
       </c>
-      <c r="S21" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C22">
         <v>2016</v>
@@ -1700,16 +1638,13 @@
       <c r="R22">
         <v>39.299999999999997</v>
       </c>
-      <c r="S22" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <v>2017</v>
@@ -1756,16 +1691,13 @@
       <c r="R23">
         <v>19.7</v>
       </c>
-      <c r="S23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C24">
         <v>2018</v>
@@ -1812,16 +1744,13 @@
       <c r="R24">
         <v>80</v>
       </c>
-      <c r="S24" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C25">
         <v>2019</v>
@@ -1871,16 +1800,13 @@
       <c r="R25">
         <v>31.8</v>
       </c>
-      <c r="S25" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>2020</v>
@@ -1924,16 +1850,13 @@
       <c r="Q26">
         <v>25955000</v>
       </c>
-      <c r="S26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C27">
         <v>2021</v>
@@ -1977,16 +1900,13 @@
       <c r="Q27">
         <v>27655000</v>
       </c>
-      <c r="S27" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -2021,16 +1941,13 @@
       <c r="N28">
         <v>81.3</v>
       </c>
-      <c r="S28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -2053,16 +1970,13 @@
       <c r="L29">
         <v>1</v>
       </c>
-      <c r="S29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C30">
         <v>2010</v>
@@ -2103,16 +2017,13 @@
       <c r="R30">
         <v>80.599999999999994</v>
       </c>
-      <c r="S30" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C31">
         <v>2011</v>
@@ -2153,16 +2064,13 @@
       <c r="R31">
         <v>80.599999999999994</v>
       </c>
-      <c r="S31" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C32">
         <v>2012</v>
@@ -2209,16 +2117,13 @@
       <c r="R32">
         <v>76.900000000000006</v>
       </c>
-      <c r="S32" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C33">
         <v>2013</v>
@@ -2265,16 +2170,13 @@
       <c r="R33">
         <v>64.8</v>
       </c>
-      <c r="S33" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C34">
         <v>2014</v>
@@ -2321,16 +2223,13 @@
       <c r="R34">
         <v>73.8</v>
       </c>
-      <c r="S34" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C35">
         <v>2015</v>
@@ -2377,16 +2276,13 @@
       <c r="R35">
         <v>65</v>
       </c>
-      <c r="S35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C36">
         <v>2016</v>
@@ -2436,16 +2332,13 @@
       <c r="R36">
         <v>64.2</v>
       </c>
-      <c r="S36" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C37">
         <v>2017</v>
@@ -2492,16 +2385,13 @@
       <c r="R37">
         <v>74.599999999999994</v>
       </c>
-      <c r="S37" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C38">
         <v>2018</v>
@@ -2548,16 +2438,13 @@
       <c r="R38">
         <v>79.7</v>
       </c>
-      <c r="S38" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B39" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C39">
         <v>2019</v>
@@ -2607,16 +2494,13 @@
       <c r="R39">
         <v>50.5</v>
       </c>
-      <c r="S39" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C40">
         <v>2020</v>
@@ -2660,16 +2544,13 @@
       <c r="Q40">
         <v>708036000</v>
       </c>
-      <c r="S40" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C41">
         <v>2021</v>
@@ -2713,16 +2594,13 @@
       <c r="Q41">
         <v>787757000</v>
       </c>
-      <c r="S41" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C42">
         <v>2022</v>
@@ -2757,16 +2635,13 @@
       <c r="N42">
         <v>85.6</v>
       </c>
-      <c r="S42" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B43" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -2789,16 +2664,13 @@
       <c r="L43">
         <v>1</v>
       </c>
-      <c r="S43" t="s">
+    </row>
+    <row r="44" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>21</v>
-      </c>
       <c r="B44" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C44">
         <v>2010</v>
@@ -2839,16 +2711,13 @@
       <c r="R44">
         <v>124.9</v>
       </c>
-      <c r="S44" t="s">
+    </row>
+    <row r="45" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>21</v>
-      </c>
       <c r="B45" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C45">
         <v>2011</v>
@@ -2889,16 +2758,13 @@
       <c r="R45">
         <v>122.6</v>
       </c>
-      <c r="S45" t="s">
+    </row>
+    <row r="46" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>21</v>
-      </c>
       <c r="B46" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C46">
         <v>2012</v>
@@ -2945,16 +2811,13 @@
       <c r="R46">
         <v>117.7</v>
       </c>
-      <c r="S46" t="s">
+    </row>
+    <row r="47" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>21</v>
-      </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C47">
         <v>2013</v>
@@ -3001,16 +2864,13 @@
       <c r="R47">
         <v>105.3</v>
       </c>
-      <c r="S47" t="s">
+    </row>
+    <row r="48" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>21</v>
-      </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C48">
         <v>2014</v>
@@ -3057,16 +2917,13 @@
       <c r="R48">
         <v>114.9</v>
       </c>
-      <c r="S48" t="s">
+    </row>
+    <row r="49" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>21</v>
-      </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C49">
         <v>2015</v>
@@ -3113,16 +2970,13 @@
       <c r="R49">
         <v>116.2</v>
       </c>
-      <c r="S49" t="s">
+    </row>
+    <row r="50" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C50">
         <v>2016</v>
@@ -3172,16 +3026,13 @@
       <c r="R50">
         <v>122.6</v>
       </c>
-      <c r="S50" t="s">
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>21</v>
-      </c>
       <c r="B51" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C51">
         <v>2017</v>
@@ -3228,16 +3079,13 @@
       <c r="R51">
         <v>127.5</v>
       </c>
-      <c r="S51" t="s">
+    </row>
+    <row r="52" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>21</v>
-      </c>
       <c r="B52" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C52">
         <v>2018</v>
@@ -3284,16 +3132,13 @@
       <c r="R52">
         <v>124.9</v>
       </c>
-      <c r="S52" t="s">
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>21</v>
-      </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C53">
         <v>2019</v>
@@ -3343,16 +3188,13 @@
       <c r="R53">
         <v>124.9</v>
       </c>
-      <c r="S53" t="s">
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>21</v>
-      </c>
       <c r="B54" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C54">
         <v>2020</v>
@@ -3396,16 +3238,13 @@
       <c r="Q54">
         <v>5087077000</v>
       </c>
-      <c r="S54" t="s">
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>21</v>
-      </c>
       <c r="B55" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C55">
         <v>2021</v>
@@ -3449,16 +3288,13 @@
       <c r="Q55">
         <v>5188343000</v>
       </c>
-      <c r="S55" t="s">
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>21</v>
-      </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C56">
         <v>2022</v>
@@ -3493,16 +3329,13 @@
       <c r="N56">
         <v>103.2</v>
       </c>
-      <c r="S56" t="s">
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>21</v>
-      </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="C57">
         <v>2023</v>
@@ -3525,16 +3358,13 @@
       <c r="L57">
         <v>15</v>
       </c>
-      <c r="S57" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C58">
         <v>2010</v>
@@ -3575,16 +3405,13 @@
       <c r="R58">
         <v>27.9</v>
       </c>
-      <c r="S58" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C59">
         <v>2011</v>
@@ -3625,16 +3452,13 @@
       <c r="R59">
         <v>65</v>
       </c>
-      <c r="S59" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C60">
         <v>2012</v>
@@ -3681,16 +3505,13 @@
       <c r="R60">
         <v>76.3</v>
       </c>
-      <c r="S60" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C61">
         <v>2013</v>
@@ -3737,16 +3558,13 @@
       <c r="R61">
         <v>63.5</v>
       </c>
-      <c r="S61" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C62">
         <v>2014</v>
@@ -3793,16 +3611,13 @@
       <c r="R62">
         <v>77.8</v>
       </c>
-      <c r="S62" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B63" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C63">
         <v>2015</v>
@@ -3849,16 +3664,13 @@
       <c r="R63">
         <v>60.1</v>
       </c>
-      <c r="S63" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B64" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C64">
         <v>2016</v>
@@ -3908,16 +3720,13 @@
       <c r="R64">
         <v>30</v>
       </c>
-      <c r="S64" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B65" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C65">
         <v>2017</v>
@@ -3964,16 +3773,13 @@
       <c r="R65">
         <v>57.8</v>
       </c>
-      <c r="S65" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B66" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C66">
         <v>2018</v>
@@ -4020,16 +3826,13 @@
       <c r="R66">
         <v>113.2</v>
       </c>
-      <c r="S66" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B67" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C67">
         <v>2019</v>
@@ -4079,16 +3882,13 @@
       <c r="R67">
         <v>78.3</v>
       </c>
-      <c r="S67" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B68" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C68">
         <v>2020</v>
@@ -4132,16 +3932,13 @@
       <c r="Q68">
         <v>534497000</v>
       </c>
-      <c r="S68" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C69">
         <v>2021</v>
@@ -4185,16 +3982,13 @@
       <c r="Q69">
         <v>533781000</v>
       </c>
-      <c r="S69" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C70">
         <v>2022</v>
@@ -4229,16 +4023,13 @@
       <c r="N70">
         <v>87.85</v>
       </c>
-      <c r="S70" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C71">
         <v>2023</v>
@@ -4261,16 +4052,13 @@
       <c r="L71">
         <v>2</v>
       </c>
-      <c r="S71" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C72">
         <v>2010</v>
@@ -4311,16 +4099,13 @@
       <c r="R72">
         <v>115.1</v>
       </c>
-      <c r="S72" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B73" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C73">
         <v>2011</v>
@@ -4361,16 +4146,13 @@
       <c r="R73">
         <v>112.4</v>
       </c>
-      <c r="S73" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C74">
         <v>2012</v>
@@ -4417,16 +4199,13 @@
       <c r="R74">
         <v>111</v>
       </c>
-      <c r="S74" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C75">
         <v>2013</v>
@@ -4473,16 +4252,13 @@
       <c r="R75">
         <v>120</v>
       </c>
-      <c r="S75" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C76">
         <v>2014</v>
@@ -4529,16 +4305,13 @@
       <c r="R76">
         <v>109.4</v>
       </c>
-      <c r="S76" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B77" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C77">
         <v>2015</v>
@@ -4585,16 +4358,13 @@
       <c r="R77">
         <v>122.8</v>
       </c>
-      <c r="S77" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B78" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C78">
         <v>2016</v>
@@ -4644,16 +4414,13 @@
       <c r="R78">
         <v>123.5</v>
       </c>
-      <c r="S78" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C79">
         <v>2017</v>
@@ -4700,16 +4467,13 @@
       <c r="R79">
         <v>132.19999999999999</v>
       </c>
-      <c r="S79" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C80">
         <v>2018</v>
@@ -4756,16 +4520,13 @@
       <c r="R80">
         <v>140.19999999999999</v>
       </c>
-      <c r="S80" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C81">
         <v>2019</v>
@@ -4815,16 +4576,13 @@
       <c r="R81">
         <v>134.5</v>
       </c>
-      <c r="S81" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C82">
         <v>2020</v>
@@ -4868,16 +4626,13 @@
       <c r="Q82">
         <v>2111081000</v>
       </c>
-      <c r="S82" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C83">
         <v>2021</v>
@@ -4921,16 +4676,13 @@
       <c r="Q83">
         <v>2089890000</v>
       </c>
-      <c r="S83" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C84">
         <v>2022</v>
@@ -4965,16 +4717,13 @@
       <c r="N84">
         <v>92.6</v>
       </c>
-      <c r="S84" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C85">
         <v>2023</v>
@@ -4997,16 +4746,13 @@
       <c r="L85">
         <v>4</v>
       </c>
-      <c r="S85" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C86">
         <v>2010</v>
@@ -5047,16 +4793,13 @@
       <c r="R86">
         <v>156</v>
       </c>
-      <c r="S86" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C87">
         <v>2011</v>
@@ -5097,16 +4840,13 @@
       <c r="R87">
         <v>207</v>
       </c>
-      <c r="S87" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C88">
         <v>2012</v>
@@ -5153,16 +4893,13 @@
       <c r="R88">
         <v>226.1</v>
       </c>
-      <c r="S88" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C89">
         <v>2013</v>
@@ -5209,16 +4946,13 @@
       <c r="R89">
         <v>254.1</v>
       </c>
-      <c r="S89" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C90">
         <v>2014</v>
@@ -5265,16 +4999,13 @@
       <c r="R90">
         <v>160.69999999999999</v>
       </c>
-      <c r="S90" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C91">
         <v>2015</v>
@@ -5321,16 +5052,13 @@
       <c r="R91">
         <v>147.4</v>
       </c>
-      <c r="S91" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B92" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C92">
         <v>2016</v>
@@ -5380,16 +5108,13 @@
       <c r="R92">
         <v>158</v>
       </c>
-      <c r="S92" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C93">
         <v>2017</v>
@@ -5436,16 +5161,13 @@
       <c r="R93">
         <v>115.5</v>
       </c>
-      <c r="S93" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C94">
         <v>2018</v>
@@ -5492,16 +5214,13 @@
       <c r="R94">
         <v>126.5</v>
       </c>
-      <c r="S94" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C95">
         <v>2019</v>
@@ -5551,16 +5270,13 @@
       <c r="R95">
         <v>114.4</v>
       </c>
-      <c r="S95" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="96" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C96">
         <v>2020</v>
@@ -5604,16 +5320,13 @@
       <c r="Q96">
         <v>635436000</v>
       </c>
-      <c r="S96" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="97" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C97">
         <v>2021</v>
@@ -5657,16 +5370,13 @@
       <c r="Q97">
         <v>648213000</v>
       </c>
-      <c r="S97" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="98" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B98" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C98">
         <v>2022</v>
@@ -5701,16 +5411,13 @@
       <c r="N98">
         <v>89.6</v>
       </c>
-      <c r="S98" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B99" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C99">
         <v>2023</v>
@@ -5733,16 +5440,13 @@
       <c r="L99">
         <v>3</v>
       </c>
-      <c r="S99" t="s">
+    </row>
+    <row r="100" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>26</v>
-      </c>
       <c r="B100" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C100">
         <v>2010</v>
@@ -5783,16 +5487,13 @@
       <c r="R100">
         <v>160</v>
       </c>
-      <c r="S100" t="s">
+    </row>
+    <row r="101" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="101" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
-        <v>26</v>
-      </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C101">
         <v>2011</v>
@@ -5833,16 +5534,13 @@
       <c r="R101">
         <v>168</v>
       </c>
-      <c r="S101" t="s">
+    </row>
+    <row r="102" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="102" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A102" t="s">
-        <v>26</v>
-      </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C102">
         <v>2012</v>
@@ -5889,16 +5587,13 @@
       <c r="R102">
         <v>176.6</v>
       </c>
-      <c r="S102" t="s">
+    </row>
+    <row r="103" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="103" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A103" t="s">
-        <v>26</v>
-      </c>
       <c r="B103" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C103">
         <v>2013</v>
@@ -5945,16 +5640,13 @@
       <c r="R103">
         <v>177</v>
       </c>
-      <c r="S103" t="s">
+    </row>
+    <row r="104" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="104" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>26</v>
-      </c>
       <c r="B104" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C104">
         <v>2014</v>
@@ -6001,16 +5693,13 @@
       <c r="R104">
         <v>161.5</v>
       </c>
-      <c r="S104" t="s">
+    </row>
+    <row r="105" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="105" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
-        <v>26</v>
-      </c>
       <c r="B105" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C105">
         <v>2015</v>
@@ -6057,16 +5746,13 @@
       <c r="R105">
         <v>167.1</v>
       </c>
-      <c r="S105" t="s">
+    </row>
+    <row r="106" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="106" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
-        <v>26</v>
-      </c>
       <c r="B106" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C106">
         <v>2016</v>
@@ -6116,16 +5802,13 @@
       <c r="R106">
         <v>197.8</v>
       </c>
-      <c r="S106" t="s">
+    </row>
+    <row r="107" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
-        <v>26</v>
-      </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C107">
         <v>2017</v>
@@ -6172,16 +5855,13 @@
       <c r="R107">
         <v>184.4</v>
       </c>
-      <c r="S107" t="s">
+    </row>
+    <row r="108" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="108" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>26</v>
-      </c>
       <c r="B108" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C108">
         <v>2018</v>
@@ -6228,16 +5908,13 @@
       <c r="R108">
         <v>196.3</v>
       </c>
-      <c r="S108" t="s">
+    </row>
+    <row r="109" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="109" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A109" t="s">
-        <v>26</v>
-      </c>
       <c r="B109" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C109">
         <v>2019</v>
@@ -6287,16 +5964,13 @@
       <c r="R109">
         <v>197</v>
       </c>
-      <c r="S109" t="s">
+    </row>
+    <row r="110" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>26</v>
-      </c>
       <c r="B110" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C110">
         <v>2020</v>
@@ -6340,16 +6014,13 @@
       <c r="Q110">
         <v>3207479000</v>
       </c>
-      <c r="S110" t="s">
+    </row>
+    <row r="111" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
-        <v>26</v>
-      </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C111">
         <v>2021</v>
@@ -6393,16 +6064,13 @@
       <c r="Q111">
         <v>3520560000</v>
       </c>
-      <c r="S111" t="s">
+    </row>
+    <row r="112" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="112" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>26</v>
-      </c>
       <c r="B112" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C112">
         <v>2022</v>
@@ -6437,16 +6105,13 @@
       <c r="N112">
         <v>93.6</v>
       </c>
-      <c r="S112" t="s">
+    </row>
+    <row r="113" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="113" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>26</v>
-      </c>
       <c r="B113" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C113">
         <v>2023</v>
@@ -6469,16 +6134,13 @@
       <c r="L113">
         <v>4</v>
       </c>
-      <c r="S113" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="114" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C114">
         <v>2010</v>
@@ -6519,16 +6181,13 @@
       <c r="R114">
         <v>107.2</v>
       </c>
-      <c r="S114" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="115" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C115">
         <v>2011</v>
@@ -6569,16 +6228,13 @@
       <c r="R115">
         <v>87.3</v>
       </c>
-      <c r="S115" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="116" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C116">
         <v>2012</v>
@@ -6625,16 +6281,13 @@
       <c r="R116">
         <v>88</v>
       </c>
-      <c r="S116" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="117" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C117">
         <v>2013</v>
@@ -6681,16 +6334,13 @@
       <c r="R117">
         <v>88.2</v>
       </c>
-      <c r="S117" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="118" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B118" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C118">
         <v>2014</v>
@@ -6737,16 +6387,13 @@
       <c r="R118">
         <v>92.8</v>
       </c>
-      <c r="S118" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="119" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B119" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C119">
         <v>2015</v>
@@ -6793,16 +6440,13 @@
       <c r="R119">
         <v>94.3</v>
       </c>
-      <c r="S119" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="120" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B120" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C120">
         <v>2016</v>
@@ -6852,16 +6496,13 @@
       <c r="R120">
         <v>102.2</v>
       </c>
-      <c r="S120" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="121" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C121">
         <v>2017</v>
@@ -6908,16 +6549,13 @@
       <c r="R121">
         <v>99.5</v>
       </c>
-      <c r="S121" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="122" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C122">
         <v>2018</v>
@@ -6964,16 +6602,13 @@
       <c r="R122">
         <v>88.3</v>
       </c>
-      <c r="S122" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="123" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C123">
         <v>2019</v>
@@ -7023,16 +6658,13 @@
       <c r="R123">
         <v>87</v>
       </c>
-      <c r="S123" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="124" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C124">
         <v>2020</v>
@@ -7076,16 +6708,13 @@
       <c r="Q124">
         <v>1788828000</v>
       </c>
-      <c r="S124" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="125" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B125" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C125">
         <v>2021</v>
@@ -7129,16 +6758,13 @@
       <c r="Q125">
         <v>1807783000</v>
       </c>
-      <c r="S125" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="126" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B126" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C126">
         <v>2022</v>
@@ -7173,16 +6799,13 @@
       <c r="N126">
         <v>86.9</v>
       </c>
-      <c r="S126" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="127" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B127" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C127">
         <v>2023</v>
@@ -7205,16 +6828,13 @@
       <c r="L127">
         <v>8</v>
       </c>
-      <c r="S127" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="128" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B128" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C128">
         <v>2010</v>
@@ -7255,16 +6875,13 @@
       <c r="R128">
         <v>37.4</v>
       </c>
-      <c r="S128" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="129" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B129" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C129">
         <v>2011</v>
@@ -7305,16 +6922,13 @@
       <c r="R129">
         <v>37.9</v>
       </c>
-      <c r="S129" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="130" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B130" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C130">
         <v>2012</v>
@@ -7361,16 +6975,13 @@
       <c r="R130">
         <v>37.299999999999997</v>
       </c>
-      <c r="S130" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="131" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B131" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C131">
         <v>2013</v>
@@ -7417,16 +7028,13 @@
       <c r="R131">
         <v>57</v>
       </c>
-      <c r="S131" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="132" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B132" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C132">
         <v>2014</v>
@@ -7473,16 +7081,13 @@
       <c r="R132">
         <v>39.700000000000003</v>
       </c>
-      <c r="S132" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="133" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B133" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C133">
         <v>2015</v>
@@ -7526,16 +7131,13 @@
       <c r="R133">
         <v>44</v>
       </c>
-      <c r="S133" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="134" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B134" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C134">
         <v>2016</v>
@@ -7582,16 +7184,13 @@
       <c r="R134">
         <v>43.9</v>
       </c>
-      <c r="S134" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="135" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B135" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C135">
         <v>2017</v>
@@ -7638,16 +7237,13 @@
       <c r="R135">
         <v>46</v>
       </c>
-      <c r="S135" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="136" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B136" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C136">
         <v>2018</v>
@@ -7694,16 +7290,13 @@
       <c r="R136">
         <v>37.5</v>
       </c>
-      <c r="S136" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="137" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B137" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C137">
         <v>2019</v>
@@ -7753,16 +7346,13 @@
       <c r="R137">
         <v>38.9</v>
       </c>
-      <c r="S137" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="138" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B138" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C138">
         <v>2020</v>
@@ -7806,16 +7396,13 @@
       <c r="Q138">
         <v>222904000</v>
       </c>
-      <c r="S138" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="139" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B139" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C139">
         <v>2021</v>
@@ -7859,16 +7446,13 @@
       <c r="Q139">
         <v>223455000</v>
       </c>
-      <c r="S139" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="140" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C140">
         <v>2022</v>
@@ -7903,16 +7487,13 @@
       <c r="N140">
         <v>85</v>
       </c>
-      <c r="S140" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="141" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B141" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C141">
         <v>2023</v>
@@ -7935,16 +7516,13 @@
       <c r="L141">
         <v>2</v>
       </c>
-      <c r="S141" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="142" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B142" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C142">
         <v>2010</v>
@@ -7985,16 +7563,13 @@
       <c r="R142">
         <v>96.6</v>
       </c>
-      <c r="S142" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="143" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C143">
         <v>2011</v>
@@ -8035,16 +7610,13 @@
       <c r="R143">
         <v>94.4</v>
       </c>
-      <c r="S143" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="144" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B144" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C144">
         <v>2012</v>
@@ -8091,16 +7663,13 @@
       <c r="R144">
         <v>84.8</v>
       </c>
-      <c r="S144" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="145" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C145">
         <v>2013</v>
@@ -8147,16 +7716,13 @@
       <c r="R145">
         <v>77.3</v>
       </c>
-      <c r="S145" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="146" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B146" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C146">
         <v>2014</v>
@@ -8203,16 +7769,13 @@
       <c r="R146">
         <v>76.900000000000006</v>
       </c>
-      <c r="S146" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="147" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B147" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C147">
         <v>2015</v>
@@ -8259,16 +7822,13 @@
       <c r="R147">
         <v>89.4</v>
       </c>
-      <c r="S147" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B148" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C148">
         <v>2016</v>
@@ -8318,16 +7878,13 @@
       <c r="R148">
         <v>79.400000000000006</v>
       </c>
-      <c r="S148" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B149" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C149">
         <v>2017</v>
@@ -8374,16 +7931,13 @@
       <c r="R149">
         <v>79.900000000000006</v>
       </c>
-      <c r="S149" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="150" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B150" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C150">
         <v>2018</v>
@@ -8430,16 +7984,13 @@
       <c r="R150">
         <v>66.599999999999994</v>
       </c>
-      <c r="S150" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="151" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B151" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C151">
         <v>2019</v>
@@ -8489,16 +8040,13 @@
       <c r="R151">
         <v>73.400000000000006</v>
       </c>
-      <c r="S151" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B152" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C152">
         <v>2020</v>
@@ -8542,16 +8090,13 @@
       <c r="Q152">
         <v>404507000</v>
       </c>
-      <c r="S152" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="153" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B153" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C153">
         <v>2021</v>
@@ -8595,16 +8140,13 @@
       <c r="Q153">
         <v>426774000</v>
       </c>
-      <c r="S153" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="154" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B154" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C154">
         <v>2022</v>
@@ -8639,16 +8181,13 @@
       <c r="N154">
         <v>85.6</v>
       </c>
-      <c r="S154" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="155" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B155" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C155">
         <v>2023</v>
@@ -8671,16 +8210,13 @@
       <c r="L155">
         <v>4</v>
       </c>
-      <c r="S155" t="s">
+    </row>
+    <row r="156" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="156" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A156" t="s">
-        <v>31</v>
-      </c>
       <c r="B156" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C156">
         <v>2010</v>
@@ -8721,16 +8257,13 @@
       <c r="R156">
         <v>34</v>
       </c>
-      <c r="S156" t="s">
+    </row>
+    <row r="157" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="157" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A157" t="s">
-        <v>31</v>
-      </c>
       <c r="B157" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C157">
         <v>2011</v>
@@ -8771,16 +8304,13 @@
       <c r="R157">
         <v>41.3</v>
       </c>
-      <c r="S157" t="s">
+    </row>
+    <row r="158" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="158" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A158" t="s">
-        <v>31</v>
-      </c>
       <c r="B158" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C158">
         <v>2012</v>
@@ -8827,16 +8357,13 @@
       <c r="R158">
         <v>38.700000000000003</v>
       </c>
-      <c r="S158" t="s">
+    </row>
+    <row r="159" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="159" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A159" t="s">
-        <v>31</v>
-      </c>
       <c r="B159" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C159">
         <v>2013</v>
@@ -8883,16 +8410,13 @@
       <c r="R159">
         <v>34.6</v>
       </c>
-      <c r="S159" t="s">
+    </row>
+    <row r="160" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="160" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A160" t="s">
-        <v>31</v>
-      </c>
       <c r="B160" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C160">
         <v>2014</v>
@@ -8939,16 +8463,13 @@
       <c r="R160">
         <v>31.7</v>
       </c>
-      <c r="S160" t="s">
+    </row>
+    <row r="161" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="161" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A161" t="s">
-        <v>31</v>
-      </c>
       <c r="B161" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C161">
         <v>2015</v>
@@ -8995,16 +8516,13 @@
       <c r="R161">
         <v>32.1</v>
       </c>
-      <c r="S161" t="s">
+    </row>
+    <row r="162" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="162" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A162" t="s">
-        <v>31</v>
-      </c>
       <c r="B162" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C162">
         <v>2016</v>
@@ -9054,16 +8572,13 @@
       <c r="R162">
         <v>34.4</v>
       </c>
-      <c r="S162" t="s">
+    </row>
+    <row r="163" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="163" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A163" t="s">
-        <v>31</v>
-      </c>
       <c r="B163" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C163">
         <v>2017</v>
@@ -9110,16 +8625,13 @@
       <c r="R163">
         <v>35.5</v>
       </c>
-      <c r="S163" t="s">
+    </row>
+    <row r="164" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="164" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A164" t="s">
-        <v>31</v>
-      </c>
       <c r="B164" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C164">
         <v>2018</v>
@@ -9166,16 +8678,13 @@
       <c r="R164">
         <v>41.2</v>
       </c>
-      <c r="S164" t="s">
+    </row>
+    <row r="165" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="165" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A165" t="s">
-        <v>31</v>
-      </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C165">
         <v>2019</v>
@@ -9225,16 +8734,13 @@
       <c r="R165">
         <v>35.9</v>
       </c>
-      <c r="S165" t="s">
+    </row>
+    <row r="166" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="166" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A166" t="s">
-        <v>31</v>
-      </c>
       <c r="B166" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C166">
         <v>2020</v>
@@ -9278,16 +8784,13 @@
       <c r="Q166">
         <v>3676853000</v>
       </c>
-      <c r="S166" t="s">
+    </row>
+    <row r="167" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="167" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A167" t="s">
-        <v>31</v>
-      </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C167">
         <v>2021</v>
@@ -9331,16 +8834,13 @@
       <c r="Q167">
         <v>3955681000</v>
       </c>
-      <c r="S167" t="s">
+    </row>
+    <row r="168" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="168" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A168" t="s">
-        <v>31</v>
-      </c>
       <c r="B168" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C168">
         <v>2022</v>
@@ -9375,16 +8875,13 @@
       <c r="N168">
         <v>92.6</v>
       </c>
-      <c r="S168" t="s">
+    </row>
+    <row r="169" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="169" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A169" t="s">
-        <v>31</v>
-      </c>
       <c r="B169" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C169">
         <v>2023</v>
@@ -9407,16 +8904,13 @@
       <c r="L169">
         <v>19</v>
       </c>
-      <c r="S169" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="170" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B170" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C170">
         <v>2010</v>
@@ -9457,16 +8951,13 @@
       <c r="R170">
         <v>39.9</v>
       </c>
-      <c r="S170" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="171" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B171" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C171">
         <v>2011</v>
@@ -9507,16 +8998,13 @@
       <c r="R171">
         <v>28.2</v>
       </c>
-      <c r="S171" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="172" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C172">
         <v>2012</v>
@@ -9563,16 +9051,13 @@
       <c r="R172">
         <v>34.1</v>
       </c>
-      <c r="S172" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="173" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B173" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C173">
         <v>2013</v>
@@ -9619,16 +9104,13 @@
       <c r="R173">
         <v>24.9</v>
       </c>
-      <c r="S173" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="174" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B174" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C174">
         <v>2014</v>
@@ -9675,16 +9157,13 @@
       <c r="R174">
         <v>30.1</v>
       </c>
-      <c r="S174" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="175" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B175" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C175">
         <v>2015</v>
@@ -9731,16 +9210,13 @@
       <c r="R175">
         <v>32</v>
       </c>
-      <c r="S175" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="176" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B176" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C176">
         <v>2016</v>
@@ -9790,16 +9266,13 @@
       <c r="R176">
         <v>37.6</v>
       </c>
-      <c r="S176" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="177" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B177" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C177">
         <v>2017</v>
@@ -9846,16 +9319,13 @@
       <c r="R177">
         <v>47.5</v>
       </c>
-      <c r="S177" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="178" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B178" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C178">
         <v>2018</v>
@@ -9902,16 +9372,13 @@
       <c r="R178">
         <v>38.5</v>
       </c>
-      <c r="S178" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="179" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B179" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C179">
         <v>2019</v>
@@ -9961,16 +9428,13 @@
       <c r="R179">
         <v>41.9</v>
       </c>
-      <c r="S179" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="180" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B180" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C180">
         <v>2020</v>
@@ -10014,16 +9478,13 @@
       <c r="Q180">
         <v>311899000</v>
       </c>
-      <c r="S180" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="181" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B181" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C181">
         <v>2021</v>
@@ -10067,16 +9528,13 @@
       <c r="Q181">
         <v>373315000</v>
       </c>
-      <c r="S181" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="182" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B182" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C182">
         <v>2022</v>
@@ -10111,16 +9569,13 @@
       <c r="N182">
         <v>77.2</v>
       </c>
-      <c r="S182" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="183" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B183" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C183">
         <v>2023</v>
@@ -10143,16 +9598,13 @@
       <c r="L183">
         <v>5</v>
       </c>
-      <c r="S183" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="184" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B184" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C184">
         <v>2010</v>
@@ -10193,16 +9645,13 @@
       <c r="R184">
         <v>5.7</v>
       </c>
-      <c r="S184" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="185" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B185" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C185">
         <v>2011</v>
@@ -10243,16 +9692,13 @@
       <c r="R185">
         <v>4.8</v>
       </c>
-      <c r="S185" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="186" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B186" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C186">
         <v>2012</v>
@@ -10299,16 +9745,13 @@
       <c r="R186">
         <v>10.5</v>
       </c>
-      <c r="S186" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="187" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B187" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C187">
         <v>2013</v>
@@ -10355,16 +9798,13 @@
       <c r="R187">
         <v>3.5</v>
       </c>
-      <c r="S187" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="188" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B188" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C188">
         <v>2014</v>
@@ -10411,16 +9851,13 @@
       <c r="R188">
         <v>12.1</v>
       </c>
-      <c r="S188" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="189" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B189" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C189">
         <v>2015</v>
@@ -10464,16 +9901,13 @@
       <c r="R189">
         <v>15.3</v>
       </c>
-      <c r="S189" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="190" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B190" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C190">
         <v>2016</v>
@@ -10520,16 +9954,13 @@
       <c r="R190">
         <v>7.1</v>
       </c>
-      <c r="S190" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="191" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B191" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C191">
         <v>2017</v>
@@ -10576,16 +10007,13 @@
       <c r="R191">
         <v>8.1</v>
       </c>
-      <c r="S191" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="192" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B192" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C192">
         <v>2018</v>
@@ -10632,16 +10060,13 @@
       <c r="R192">
         <v>28.8</v>
       </c>
-      <c r="S192" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="193" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B193" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C193">
         <v>2019</v>
@@ -10691,16 +10116,13 @@
       <c r="R193">
         <v>28.3</v>
       </c>
-      <c r="S193" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="194" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B194" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C194">
         <v>2020</v>
@@ -10744,16 +10166,13 @@
       <c r="Q194">
         <v>62838000</v>
       </c>
-      <c r="S194" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="195" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B195" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C195">
         <v>2021</v>
@@ -10797,16 +10216,13 @@
       <c r="Q195">
         <v>61015000</v>
       </c>
-      <c r="S195" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="196" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B196" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C196">
         <v>2022</v>
@@ -10841,16 +10257,13 @@
       <c r="N196">
         <v>69.900000000000006</v>
       </c>
-      <c r="S196" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="197" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B197" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C197">
         <v>2023</v>
@@ -10873,16 +10286,13 @@
       <c r="L197">
         <v>1</v>
       </c>
-      <c r="S197" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="198" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B198" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C198">
         <v>2010</v>
@@ -10923,16 +10333,13 @@
       <c r="R198">
         <v>16.399999999999999</v>
       </c>
-      <c r="S198" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="199" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B199" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C199">
         <v>2011</v>
@@ -10973,16 +10380,13 @@
       <c r="R199">
         <v>12.1</v>
       </c>
-      <c r="S199" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="200" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B200" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C200">
         <v>2012</v>
@@ -11029,16 +10433,13 @@
       <c r="R200">
         <v>10.4</v>
       </c>
-      <c r="S200" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="201" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B201" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C201">
         <v>2013</v>
@@ -11085,16 +10486,13 @@
       <c r="R201">
         <v>12.6</v>
       </c>
-      <c r="S201" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="202" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B202" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C202">
         <v>2014</v>
@@ -11141,16 +10539,13 @@
       <c r="R202">
         <v>13.5</v>
       </c>
-      <c r="S202" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="203" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B203" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C203">
         <v>2015</v>
@@ -11197,16 +10592,13 @@
       <c r="R203">
         <v>12.9</v>
       </c>
-      <c r="S203" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="204" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B204" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C204">
         <v>2016</v>
@@ -11256,16 +10648,13 @@
       <c r="R204">
         <v>14.2</v>
       </c>
-      <c r="S204" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="205" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B205" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C205">
         <v>2017</v>
@@ -11312,16 +10701,13 @@
       <c r="R205">
         <v>13.3</v>
       </c>
-      <c r="S205" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="206" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B206" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C206">
         <v>2018</v>
@@ -11368,16 +10754,13 @@
       <c r="R206">
         <v>19.5</v>
       </c>
-      <c r="S206" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="207" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B207" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C207">
         <v>2019</v>
@@ -11427,16 +10810,13 @@
       <c r="R207">
         <v>18.2</v>
       </c>
-      <c r="S207" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="208" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B208" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C208">
         <v>2020</v>
@@ -11480,16 +10860,13 @@
       <c r="Q208">
         <v>1370664000</v>
       </c>
-      <c r="S208" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="209" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B209" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C209">
         <v>2021</v>
@@ -11533,16 +10910,13 @@
       <c r="Q209">
         <v>1470321000</v>
       </c>
-      <c r="S209" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="210" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B210" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C210">
         <v>2022</v>
@@ -11577,16 +10951,13 @@
       <c r="N210">
         <v>68.400000000000006</v>
       </c>
-      <c r="S210" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="211" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B211" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C211">
         <v>2023</v>
@@ -11609,16 +10980,13 @@
       <c r="L211">
         <v>10</v>
       </c>
-      <c r="S211" t="s">
+    </row>
+    <row r="212" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A212" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="212" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A212" t="s">
-        <v>36</v>
-      </c>
       <c r="B212" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C212">
         <v>2010</v>
@@ -11659,16 +11027,13 @@
       <c r="R212">
         <v>13.1</v>
       </c>
-      <c r="S212" t="s">
+    </row>
+    <row r="213" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A213" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="213" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A213" t="s">
-        <v>36</v>
-      </c>
       <c r="B213" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C213">
         <v>2011</v>
@@ -11709,16 +11074,13 @@
       <c r="R213">
         <v>18.2</v>
       </c>
-      <c r="S213" t="s">
+    </row>
+    <row r="214" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A214" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="214" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A214" t="s">
-        <v>36</v>
-      </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C214">
         <v>2012</v>
@@ -11765,16 +11127,13 @@
       <c r="R214">
         <v>12.9</v>
       </c>
-      <c r="S214" t="s">
+    </row>
+    <row r="215" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A215" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="215" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A215" t="s">
-        <v>36</v>
-      </c>
       <c r="B215" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C215">
         <v>2013</v>
@@ -11821,16 +11180,13 @@
       <c r="R215">
         <v>15.5</v>
       </c>
-      <c r="S215" t="s">
+    </row>
+    <row r="216" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A216" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="216" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A216" t="s">
-        <v>36</v>
-      </c>
       <c r="B216" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C216">
         <v>2014</v>
@@ -11877,16 +11233,13 @@
       <c r="R216">
         <v>15.2</v>
       </c>
-      <c r="S216" t="s">
+    </row>
+    <row r="217" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A217" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="217" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A217" t="s">
-        <v>36</v>
-      </c>
       <c r="B217" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C217">
         <v>2015</v>
@@ -11933,16 +11286,13 @@
       <c r="R217">
         <v>15.4</v>
       </c>
-      <c r="S217" t="s">
+    </row>
+    <row r="218" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A218" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="218" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A218" t="s">
-        <v>36</v>
-      </c>
       <c r="B218" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C218">
         <v>2016</v>
@@ -11992,16 +11342,13 @@
       <c r="R218">
         <v>13.5</v>
       </c>
-      <c r="S218" t="s">
+    </row>
+    <row r="219" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A219" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="219" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A219" t="s">
-        <v>36</v>
-      </c>
       <c r="B219" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C219">
         <v>2017</v>
@@ -12048,16 +11395,13 @@
       <c r="R219">
         <v>16.600000000000001</v>
       </c>
-      <c r="S219" t="s">
+    </row>
+    <row r="220" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A220" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="220" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A220" t="s">
-        <v>36</v>
-      </c>
       <c r="B220" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C220">
         <v>2018</v>
@@ -12104,16 +11448,13 @@
       <c r="R220">
         <v>16.899999999999999</v>
       </c>
-      <c r="S220" t="s">
+    </row>
+    <row r="221" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A221" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="221" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A221" t="s">
-        <v>36</v>
-      </c>
       <c r="B221" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C221">
         <v>2019</v>
@@ -12163,16 +11504,13 @@
       <c r="R221">
         <v>14.4</v>
       </c>
-      <c r="S221" t="s">
+    </row>
+    <row r="222" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A222" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="222" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A222" t="s">
-        <v>36</v>
-      </c>
       <c r="B222" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C222">
         <v>2020</v>
@@ -12216,16 +11554,13 @@
       <c r="Q222">
         <v>607609000</v>
       </c>
-      <c r="S222" t="s">
+    </row>
+    <row r="223" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A223" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="223" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A223" t="s">
-        <v>36</v>
-      </c>
       <c r="B223" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C223">
         <v>2021</v>
@@ -12269,16 +11604,13 @@
       <c r="Q223">
         <v>671770000</v>
       </c>
-      <c r="S223" t="s">
+    </row>
+    <row r="224" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A224" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="224" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A224" t="s">
-        <v>36</v>
-      </c>
       <c r="B224" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C224">
         <v>2022</v>
@@ -12313,16 +11645,13 @@
       <c r="N224">
         <v>67.099999999999994</v>
       </c>
-      <c r="S224" t="s">
+    </row>
+    <row r="225" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A225" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="225" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A225" t="s">
-        <v>36</v>
-      </c>
       <c r="B225" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C225">
         <v>2023</v>
@@ -12345,16 +11674,13 @@
       <c r="L225">
         <v>5</v>
       </c>
-      <c r="S225" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="226" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B226" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C226">
         <v>2010</v>
@@ -12395,16 +11721,13 @@
       <c r="R226">
         <v>13.8</v>
       </c>
-      <c r="S226" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="227" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B227" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C227">
         <v>2011</v>
@@ -12445,16 +11768,13 @@
       <c r="R227">
         <v>9</v>
       </c>
-      <c r="S227" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="228" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B228" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C228">
         <v>2012</v>
@@ -12501,16 +11821,13 @@
       <c r="R228">
         <v>7.8</v>
       </c>
-      <c r="S228" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="229" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B229" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C229">
         <v>2013</v>
@@ -12557,16 +11874,13 @@
       <c r="R229">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S229" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="230" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B230" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C230">
         <v>2014</v>
@@ -12613,16 +11927,13 @@
       <c r="R230">
         <v>4.3</v>
       </c>
-      <c r="S230" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="231" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B231" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C231">
         <v>2015</v>
@@ -12669,16 +11980,13 @@
       <c r="R231">
         <v>12.8</v>
       </c>
-      <c r="S231" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="232" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B232" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C232">
         <v>2016</v>
@@ -12725,16 +12033,13 @@
       <c r="R232">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S232" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="233" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B233" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C233">
         <v>2017</v>
@@ -12781,16 +12086,13 @@
       <c r="R233">
         <v>4.2</v>
       </c>
-      <c r="S233" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="234" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B234" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C234">
         <v>2018</v>
@@ -12837,16 +12139,13 @@
       <c r="R234">
         <v>6</v>
       </c>
-      <c r="S234" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="235" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B235" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C235">
         <v>2019</v>
@@ -12896,16 +12195,13 @@
       <c r="R235">
         <v>6.3</v>
       </c>
-      <c r="S235" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="236" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B236" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C236">
         <v>2020</v>
@@ -12949,16 +12245,13 @@
       <c r="Q236">
         <v>77573000</v>
       </c>
-      <c r="S236" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="237" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B237" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C237">
         <v>2021</v>
@@ -13002,16 +12295,13 @@
       <c r="Q237">
         <v>70600000</v>
       </c>
-      <c r="S237" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="238" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B238" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C238">
         <v>2022</v>
@@ -13046,16 +12336,13 @@
       <c r="N238">
         <v>68.099999999999994</v>
       </c>
-      <c r="S238" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="239" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B239" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C239">
         <v>2023</v>
@@ -13078,16 +12365,13 @@
       <c r="L239">
         <v>1</v>
       </c>
-      <c r="S239" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="240" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B240" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C240">
         <v>2010</v>
@@ -13128,16 +12412,13 @@
       <c r="R240">
         <v>5.6</v>
       </c>
-      <c r="S240" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="241" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B241" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C241">
         <v>2011</v>
@@ -13178,16 +12459,13 @@
       <c r="R241">
         <v>6.5</v>
       </c>
-      <c r="S241" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="242" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B242" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C242">
         <v>2012</v>
@@ -13234,16 +12512,13 @@
       <c r="R242">
         <v>7.3</v>
       </c>
-      <c r="S242" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="243" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B243" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C243">
         <v>2013</v>
@@ -13290,16 +12565,13 @@
       <c r="R243">
         <v>10.7</v>
       </c>
-      <c r="S243" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="244" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B244" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C244">
         <v>2014</v>
@@ -13346,16 +12618,13 @@
       <c r="R244">
         <v>6.5</v>
       </c>
-      <c r="S244" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="245" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B245" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C245">
         <v>2015</v>
@@ -13402,16 +12671,13 @@
       <c r="R245">
         <v>7.5</v>
       </c>
-      <c r="S245" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="246" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B246" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C246">
         <v>2016</v>
@@ -13461,16 +12727,13 @@
       <c r="R246">
         <v>9</v>
       </c>
-      <c r="S246" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="247" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B247" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C247">
         <v>2017</v>
@@ -13517,16 +12780,13 @@
       <c r="R247">
         <v>9.1999999999999993</v>
       </c>
-      <c r="S247" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="248" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B248" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C248">
         <v>2018</v>
@@ -13573,16 +12833,13 @@
       <c r="R248">
         <v>9</v>
       </c>
-      <c r="S248" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="249" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B249" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C249">
         <v>2019</v>
@@ -13632,16 +12889,13 @@
       <c r="R249">
         <v>12</v>
       </c>
-      <c r="S249" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="250" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B250" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C250">
         <v>2020</v>
@@ -13685,16 +12939,13 @@
       <c r="Q250">
         <v>190164000</v>
       </c>
-      <c r="S250" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="251" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B251" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C251">
         <v>2021</v>
@@ -13738,16 +12989,13 @@
       <c r="Q251">
         <v>194274000</v>
       </c>
-      <c r="S251" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="252" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B252" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C252">
         <v>2022</v>
@@ -13782,16 +13030,13 @@
       <c r="N252">
         <v>58.8</v>
       </c>
-      <c r="S252" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="253" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B253" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C253">
         <v>2023</v>
@@ -13814,16 +13059,13 @@
       <c r="L253">
         <v>4</v>
       </c>
-      <c r="S253" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="254" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B254" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C254">
         <v>2010</v>
@@ -13864,16 +13106,13 @@
       <c r="R254">
         <v>10.5</v>
       </c>
-      <c r="S254" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="255" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B255" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C255">
         <v>2011</v>
@@ -13914,16 +13153,13 @@
       <c r="R255">
         <v>10.4</v>
       </c>
-      <c r="S255" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="256" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B256" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C256">
         <v>2012</v>
@@ -13970,16 +13206,13 @@
       <c r="R256">
         <v>5.9</v>
       </c>
-      <c r="S256" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="257" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B257" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C257">
         <v>2013</v>
@@ -14026,16 +13259,13 @@
       <c r="R257">
         <v>5.6</v>
       </c>
-      <c r="S257" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="258" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B258" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C258">
         <v>2014</v>
@@ -14082,16 +13312,13 @@
       <c r="R258">
         <v>7.3</v>
       </c>
-      <c r="S258" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="259" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B259" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C259">
         <v>2015</v>
@@ -14138,16 +13365,13 @@
       <c r="R259">
         <v>10.9</v>
       </c>
-      <c r="S259" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="260" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B260" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C260">
         <v>2016</v>
@@ -14197,16 +13421,13 @@
       <c r="R260">
         <v>8.5</v>
       </c>
-      <c r="S260" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="261" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B261" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C261">
         <v>2017</v>
@@ -14253,16 +13474,13 @@
       <c r="R261">
         <v>11</v>
       </c>
-      <c r="S261" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="262" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B262" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C262">
         <v>2018</v>
@@ -14309,16 +13527,13 @@
       <c r="R262">
         <v>10.8</v>
       </c>
-      <c r="S262" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="263" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B263" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C263">
         <v>2019</v>
@@ -14368,16 +13583,13 @@
       <c r="R263">
         <v>12.5</v>
       </c>
-      <c r="S263" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="264" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B264" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C264">
         <v>2020</v>
@@ -14421,16 +13633,13 @@
       <c r="Q264">
         <v>754895000</v>
       </c>
-      <c r="S264" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="265" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B265" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C265">
         <v>2021</v>
@@ -14474,16 +13683,13 @@
       <c r="Q265">
         <v>818050000</v>
       </c>
-      <c r="S265" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="266" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B266" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C266">
         <v>2022</v>
@@ -14518,16 +13724,13 @@
       <c r="N266">
         <v>60.1</v>
       </c>
-      <c r="S266" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="267" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B267" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C267">
         <v>2023</v>
@@ -14550,16 +13753,13 @@
       <c r="L267">
         <v>4</v>
       </c>
-      <c r="S267" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="268" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B268" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C268">
         <v>2010</v>
@@ -14600,16 +13800,13 @@
       <c r="R268">
         <v>11.4</v>
       </c>
-      <c r="S268" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="269" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B269" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C269">
         <v>2011</v>
@@ -14650,16 +13847,13 @@
       <c r="R269">
         <v>9.9</v>
       </c>
-      <c r="S269" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="270" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B270" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C270">
         <v>2012</v>
@@ -14706,16 +13900,13 @@
       <c r="R270">
         <v>8.6999999999999993</v>
       </c>
-      <c r="S270" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="271" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B271" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C271">
         <v>2013</v>
@@ -14762,16 +13953,13 @@
       <c r="R271">
         <v>8.4</v>
       </c>
-      <c r="S271" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="272" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B272" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C272">
         <v>2014</v>
@@ -14818,16 +14006,13 @@
       <c r="R272">
         <v>9.3000000000000007</v>
       </c>
-      <c r="S272" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="273" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B273" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C273">
         <v>2015</v>
@@ -14874,16 +14059,13 @@
       <c r="R273">
         <v>12.3</v>
       </c>
-      <c r="S273" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="274" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B274" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C274">
         <v>2016</v>
@@ -14933,16 +14115,13 @@
       <c r="R274">
         <v>7.7</v>
       </c>
-      <c r="S274" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="275" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B275" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C275">
         <v>2017</v>
@@ -14989,16 +14168,13 @@
       <c r="R275">
         <v>8.5</v>
       </c>
-      <c r="S275" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="276" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B276" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C276">
         <v>2018</v>
@@ -15045,16 +14221,13 @@
       <c r="R276">
         <v>14.7</v>
       </c>
-      <c r="S276" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="277" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B277" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C277">
         <v>2019</v>
@@ -15104,16 +14277,13 @@
       <c r="R277">
         <v>10.6</v>
       </c>
-      <c r="S277" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="278" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B278" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C278">
         <v>2020</v>
@@ -15157,16 +14327,13 @@
       <c r="Q278">
         <v>292204000</v>
       </c>
-      <c r="S278" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="279" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B279" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C279">
         <v>2021</v>
@@ -15210,16 +14377,13 @@
       <c r="Q279">
         <v>289406000</v>
       </c>
-      <c r="S279" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="280" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B280" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C280">
         <v>2022</v>
@@ -15254,16 +14418,13 @@
       <c r="N280">
         <v>67.099999999999994</v>
       </c>
-      <c r="S280" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="281" spans="1:19" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B281" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C281">
         <v>2023</v>
@@ -15285,9 +14446,6 @@
       </c>
       <c r="L281">
         <v>2</v>
-      </c>
-      <c r="S281" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
